--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,35 +467,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>アルトリア・ペンドラゴン</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>阿爾託莉雅·潘德拉貢</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>阿爾托莉亞．潘德拉剛</t>
-        </is>
-      </c>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -507,107 +499,107 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>アルテラ</t>
+          <t>アルトリア・ペンドラゴン</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>阿蒂拉</t>
+          <t>阿爾託莉雅·潘德拉貢</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>阿蒂拉</t>
+          <t>阿爾托莉亞．潘德拉剛</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ギルガメッシュ</t>
+          <t>アルテラ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>吉爾伽美什</t>
+          <t>阿蒂拉</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>吉爾伽美什</t>
+          <t>阿蒂拉</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>諸葛孔明〔エルメロイⅡ世〕</t>
+          <t>ギルガメッシュ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>諸葛孔明〔埃爾梅羅Ⅱ世〕</t>
+          <t>吉爾伽美什</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>諸葛孔明〔埃爾梅羅Ⅱ世〕</t>
+          <t>吉爾伽美什</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>坂田金時</t>
+          <t>諸葛孔明〔エルメロイⅡ世〕</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>坂田金時</t>
+          <t>諸葛孔明〔埃爾梅羅Ⅱ世〕</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>坂田金時</t>
+          <t>諸葛孔明〔埃爾梅羅Ⅱ世〕</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -619,443 +611,443 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ヴラド三世</t>
+          <t>坂田金時</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>弗拉德三世</t>
+          <t>坂田金時</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>弗拉德三世</t>
+          <t>坂田金時</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ジャンヌ・ダルク</t>
+          <t>ヴラド三世</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>貞德</t>
+          <t>弗拉德三世</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>貞德</t>
+          <t>弗拉德三世</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>オリオン</t>
+          <t>ジャンヌ・ダルク</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>俄裏翁</t>
+          <t>貞德</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>俄里翁</t>
+          <t>貞德</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>玉藻の前</t>
+          <t>オリオン</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>玉藻前</t>
+          <t>俄裏翁</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>玉藻前</t>
+          <t>俄里翁</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>フランシス・ドレイク</t>
+          <t>玉藻の前</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>弗朗西斯·德雷克</t>
+          <t>玉藻前</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>弗朗西斯．德雷克</t>
+          <t>玉藻前</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>沖田総司</t>
+          <t>フランシス・ドレイク</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>沖田總司</t>
+          <t>弗朗西斯·德雷克</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>沖田總司</t>
+          <t>弗朗西斯．德雷克</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>スカサハ</t>
+          <t>沖田総司</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>斯卡哈</t>
+          <t>沖田總司</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>斯卡薩哈</t>
+          <t>沖田總司</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ジャック・ザ・リッパー</t>
+          <t>スカサハ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>霧都棄子</t>
+          <t>斯卡哈</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>開膛手傑克</t>
+          <t>斯卡薩哈</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>モードレッド</t>
+          <t>ジャック・ザ・リッパー</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>莫德雷德</t>
+          <t>霧都棄子</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>莫德雷德</t>
+          <t>開膛手傑克</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ニコラ・テスラ</t>
+          <t>モードレッド</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>尼古拉·特斯拉</t>
+          <t>莫德雷德</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>尼古拉．特斯拉</t>
+          <t>莫德雷德</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Grandcaster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ソロモン</t>
+          <t>ニコラ・テスラ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>所羅門</t>
+          <t>尼古拉·特斯拉</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>所羅門</t>
+          <t>尼古拉．特斯拉</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Grandcaster</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>アルジュナ</t>
+          <t>ソロモン</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>阿周那</t>
+          <t>所羅門</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>阿周那</t>
+          <t>所羅門</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>カルナ</t>
+          <t>アルジュナ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>迦爾納</t>
+          <t>阿周那</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>迦爾納</t>
+          <t>阿周那</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>謎のヒロインX</t>
+          <t>カルナ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>謎之女主角X</t>
+          <t>迦爾納</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>謎之女主角X</t>
+          <t>迦爾納</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ブリュンヒルデ</t>
+          <t>謎のヒロインX</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>布倫希爾德</t>
+          <t>謎之女主角X</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>布倫希爾德</t>
+          <t>謎之女主角X</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ネロ・クラウディウス〔ブライド〕</t>
+          <t>ブリュンヒルデ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>尼祿·克勞狄烏斯〔新娘〕</t>
+          <t>布倫希爾德</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>尼祿．克勞狄烏斯〔Bride〕</t>
+          <t>布倫希爾德</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="n">
         <v>5</v>
@@ -1067,107 +1059,107 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>両儀式</t>
+          <t>ネロ・クラウディウス〔ブライド〕</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>兩儀式</t>
+          <t>尼祿·克勞狄烏斯〔新娘〕</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>兩儀式</t>
+          <t>尼祿．克勞狄烏斯〔Bride〕</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="n">
         <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天草四郎</t>
+          <t>両儀式</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>天草四郎</t>
+          <t>兩儀式</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>天草四郎</t>
+          <t>兩儀式</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B25" t="n">
         <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>巌窟王</t>
+          <t>天草四郎</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>巖窟王</t>
+          <t>天草四郎</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>巖窟王</t>
+          <t>天草四郎</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="n">
         <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ナイチンゲール</t>
+          <t>巌窟王</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>南丁格爾</t>
+          <t>巖窟王</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>南丁格爾</t>
+          <t>巖窟王</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="n">
         <v>5</v>
@@ -1179,779 +1171,779 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>クー・フーリン〔オルタ〕</t>
+          <t>ナイチンゲール</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>庫·丘林〔Alter〕</t>
+          <t>南丁格爾</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>庫．夫林〔Alter〕</t>
+          <t>南丁格爾</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>女王メイヴ</t>
+          <t>クー・フーリン〔オルタ〕</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>女王梅芙</t>
+          <t>庫·丘林〔Alter〕</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>女王梅芙</t>
+          <t>庫．夫林〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B29" t="n">
         <v>5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ジャンヌ・ダルク〔オルタ〕</t>
+          <t>女王メイヴ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>貞德〔Alter〕</t>
+          <t>女王梅芙</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>貞德〔Alter〕</t>
+          <t>女王梅芙</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>イスカンダル</t>
+          <t>ジャンヌ・ダルク〔オルタ〕</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>伊斯坎達爾</t>
+          <t>貞德〔Alter〕</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>伊斯坎達爾</t>
+          <t>貞德〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>酒呑童子</t>
+          <t>イスカンダル</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>酒吞童子</t>
+          <t>伊斯坎達爾</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>酒吞童子</t>
+          <t>伊斯坎達爾</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>玄奘三蔵</t>
+          <t>酒呑童子</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>西行者</t>
+          <t>酒吞童子</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>玄奘三藏</t>
+          <t>酒吞童子</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>源頼光</t>
+          <t>玄奘三蔵</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>源賴光</t>
+          <t>西行者</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>源賴光</t>
+          <t>玄奘三藏</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B34" t="n">
         <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>オジマンディアス</t>
+          <t>源頼光</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>奧斯曼狄斯</t>
+          <t>源賴光</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>奧茲曼迪亞斯</t>
+          <t>源賴光</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" t="n">
         <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>アルトリア・ペンドラゴン</t>
+          <t>オジマンディアス</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>阿爾託莉雅·潘德拉貢</t>
+          <t>奧斯曼狄斯</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>阿爾托莉亞．潘德拉剛</t>
+          <t>奧茲曼迪亞斯</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>レオナルド・ダ・ヴィンチ</t>
+          <t>アルトリア・ペンドラゴン</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>萊昂納多·達·芬奇</t>
+          <t>阿爾託莉雅·潘德拉貢</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>李奧納多．達．文西</t>
+          <t>阿爾托莉亞．潘德拉剛</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="n">
         <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>玉藻の前</t>
+          <t>レオナルド・ダ・ヴィンチ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>玉藻前</t>
+          <t>萊昂納多·達·芬奇</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>玉藻前</t>
+          <t>李奧納多．達．文西</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" t="n">
         <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>アルトリア・ペンドラゴン</t>
+          <t>玉藻の前</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>阿爾託莉雅·潘德拉貢</t>
+          <t>玉藻前</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>阿爾托莉亞．潘德拉剛</t>
+          <t>玉藻前</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B39" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>イリヤスフィール・フォン・アインツベルン</t>
+          <t>アルトリア・ペンドラゴン</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>伊莉雅絲菲爾·馮·愛因茲貝倫</t>
+          <t>阿爾託莉雅·潘德拉貢</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>伊莉雅絲菲爾．馮．愛因茲貝倫</t>
+          <t>阿爾托莉亞．潘德拉剛</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40" t="n">
         <v>5</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>クレオパトラ</t>
+          <t>イリヤスフィール・フォン・アインツベルン</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>克婁巴特拉</t>
+          <t>伊莉雅絲菲爾·馮·愛因茲貝倫</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>克麗奧佩脫拉</t>
+          <t>伊莉雅絲菲爾．馮．愛因茲貝倫</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>イシュタル</t>
+          <t>クレオパトラ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>伊什塔爾</t>
+          <t>克婁巴特拉</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>伊絲塔</t>
+          <t>克麗奧佩脫拉</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>エルキドゥ</t>
+          <t>イシュタル</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>恩奇都</t>
+          <t>伊什塔爾</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>恩奇都</t>
+          <t>伊絲塔</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" t="n">
         <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ケツァル・コアトル</t>
+          <t>エルキドゥ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>魁札爾·科亞特爾</t>
+          <t>恩奇都</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>魁札爾．科亞特爾</t>
+          <t>恩奇都</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B44" t="n">
         <v>5</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Beastii</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ティアマト</t>
+          <t>ケツァル・コアトル</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>提亞馬特</t>
+          <t>魁札爾·科亞特爾</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>迪亞馬特</t>
+          <t>魁札爾．科亞特爾</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Beastii</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>マーリン</t>
+          <t>ティアマト</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>梅林</t>
+          <t>提亞馬特</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>梅林</t>
+          <t>迪亞馬特</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" t="n">
         <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Beasti</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ゲーティア</t>
+          <t>マーリン</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>蓋提亞</t>
+          <t>梅林</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>蓋堤亞</t>
+          <t>梅林</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Beasti</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ソロモン</t>
+          <t>ゲーティア</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>所羅門</t>
+          <t>蓋提亞</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>所羅門</t>
+          <t>蓋堤亞</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>宮本武蔵</t>
+          <t>ソロモン</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>宮本武藏</t>
+          <t>所羅門</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>宮本武藏</t>
+          <t>所羅門</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>“山の翁”</t>
+          <t>宮本武蔵</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>“山中老人”</t>
+          <t>宮本武藏</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>“山之翁”</t>
+          <t>宮本武藏</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>謎のヒロインX〔オルタ〕</t>
+          <t>“山の翁”</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>謎之女主角X〔Alter〕</t>
+          <t>“山中老人”</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>謎之女主角X〔Alter〕</t>
+          <t>“山之翁”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ジェームズ・モリアーティ</t>
+          <t>謎のヒロインX〔オルタ〕</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>詹姆斯·莫里亞蒂</t>
+          <t>謎之女主角X〔Alter〕</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>詹姆斯．莫里亞蒂</t>
+          <t>謎之女主角X〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B52" t="n">
         <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>アーサー・ペンドラゴン〔プロトタイプ〕</t>
+          <t>ジェームズ・モリアーティ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>亞瑟·潘德拉貢〔Prototype〕</t>
+          <t>詹姆斯·莫里亞蒂</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>亞瑟．潘德拉剛〔Prototype〕</t>
+          <t>詹姆斯．莫里亞蒂</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>土方歳三</t>
+          <t>アーサー・ペンドラゴン〔プロトタイプ〕</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>土方歲三</t>
+          <t>亞瑟·潘德拉貢〔Prototype〕</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>土方歲三</t>
+          <t>亞瑟．潘德拉剛〔Prototype〕</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>メルトリリス</t>
+          <t>土方歳三</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Meltryllis</t>
+          <t>土方歲三</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Meltryllis</t>
+          <t>土方歲三</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B55" t="n">
         <v>5</v>
@@ -1963,359 +1955,359 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>殺生院キアラ</t>
+          <t>メルトリリス</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>瞑生院祈荒</t>
+          <t>Meltryllis</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>殺生院祈荒</t>
+          <t>Meltryllis</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Beastiiir</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ビーストⅢ／Ｒ</t>
+          <t>殺生院キアラ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BeastⅢ／R</t>
+          <t>瞑生院祈荒</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BeastⅢ／R</t>
+          <t>殺生院祈荒</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" t="n">
         <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Beastiiir</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>シェヘラザード</t>
+          <t>ビーストⅢ／Ｒ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>山魯佐德</t>
+          <t>BeastⅢ／R</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>雪赫拉莎德</t>
+          <t>BeastⅢ／R</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B58" t="n">
         <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>シャーロック・ホームズ</t>
+          <t>シェヘラザード</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>夏洛克·福爾摩斯</t>
+          <t>山魯佐德</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>夏洛克．福爾摩斯</t>
+          <t>雪赫拉莎德</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" t="n">
         <v>5</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ネロ・クラウディウス</t>
+          <t>シャーロック・ホームズ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>尼祿·克勞狄烏斯</t>
+          <t>夏洛克·福爾摩斯</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>尼祿．克勞狄烏斯</t>
+          <t>夏洛克．福爾摩斯</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>アルトリア・ペンドラゴン〔オルタ〕</t>
+          <t>ネロ・クラウディウス</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>阿爾託莉雅·潘德拉貢〔Alter〕</t>
+          <t>尼祿·克勞狄烏斯</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>阿爾托莉亞．潘德拉剛〔Alter〕</t>
+          <t>尼祿．克勞狄烏斯</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B61" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>刑部姫</t>
+          <t>アルトリア・ペンドラゴン〔オルタ〕</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>刑部姬</t>
+          <t>阿爾託莉雅·潘德拉貢〔Alter〕</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>刑部姬</t>
+          <t>阿爾托莉亞．潘德拉剛〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B62" t="n">
         <v>5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>アビゲイル・ウィリアムズ</t>
+          <t>刑部姫</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>阿比蓋爾·威廉姆斯</t>
+          <t>刑部姬</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>艾比蓋兒．威廉斯</t>
+          <t>刑部姬</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" t="n">
         <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>エレシュキガル</t>
+          <t>アビゲイル・ウィリアムズ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>埃列什基伽勒</t>
+          <t>阿比蓋爾·威廉姆斯</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>埃列什基伽勒</t>
+          <t>艾比蓋兒．威廉斯</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B64" t="n">
         <v>5</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>葛飾北斎</t>
+          <t>エレシュキガル</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>葛飾北齋</t>
+          <t>埃列什基伽勒</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>葛飾北齋</t>
+          <t>埃列什基伽勒</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" t="n">
         <v>5</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>セミラミス</t>
+          <t>葛飾北斎</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>塞彌拉彌斯</t>
+          <t>葛飾北齋</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>塞彌拉彌斯</t>
+          <t>葛飾北齋</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>アナスタシア</t>
+          <t>セミラミス</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>阿納斯塔西婭</t>
+          <t>塞彌拉彌斯</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>安娜塔西亞</t>
+          <t>塞彌拉彌斯</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B67" t="n">
         <v>5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>イヴァン雷帝</t>
+          <t>アナスタシア</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>伊凡雷帝</t>
+          <t>阿納斯塔西婭</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>伊凡雷帝</t>
+          <t>安娜塔西亞</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -2327,2259 +2319,2299 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>アキレウス</t>
+          <t>イヴァン雷帝</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>阿喀琉斯</t>
+          <t>伊凡雷帝</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>阿基里斯</t>
+          <t>伊凡雷帝</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B69" t="n">
         <v>5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>沖田総司〔オルタ〕</t>
+          <t>アキレウス</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>沖田總司〔Alter〕</t>
+          <t>阿喀琉斯</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>沖田總司〔Alter〕</t>
+          <t>阿基里斯</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B70" t="n">
         <v>5</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ナポレオン</t>
+          <t>沖田総司〔オルタ〕</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>拿破崙</t>
+          <t>沖田總司〔Alter〕</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>拿破崙</t>
+          <t>沖田總司〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" t="n">
         <v>5</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>シグルド</t>
+          <t>ナポレオン</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>齊格魯德</t>
+          <t>拿破崙</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>齊格魯德</t>
+          <t>拿破崙</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B72" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>スカサハ＝スカディ</t>
+          <t>シグルド</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>斯卡哈·斯卡蒂</t>
+          <t>齊格魯德</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>斯卡薩哈=斯卡蒂</t>
+          <t>齊格魯德</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B73" t="n">
         <v>5</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ジャンヌ・ダルク</t>
+          <t>スカサハ＝スカディ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>貞德</t>
+          <t>斯卡哈·斯卡蒂</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>貞德</t>
+          <t>斯卡薩哈=斯卡蒂</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B74" t="n">
         <v>5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mooncancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ＢＢ</t>
+          <t>ジャンヌ・ダルク</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>貞德</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>貞德</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B75" t="n">
         <v>5</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Mooncancer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>シトナイ</t>
+          <t>ＢＢ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>志度內</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>志度內</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" t="n">
         <v>5</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>項羽</t>
+          <t>シトナイ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>重瞳</t>
+          <t>志度內</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>項羽</t>
+          <t>志度內</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>始皇帝</t>
+          <t>項羽</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>祖政</t>
+          <t>重瞳</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>始皇帝</t>
+          <t>項羽</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ブラダマンテ</t>
+          <t>始皇帝</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>布拉達曼特</t>
+          <t>祖政</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>布拉達曼特</t>
+          <t>始皇帝</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>紅閻魔</t>
+          <t>ブラダマンテ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>紅閻魔</t>
+          <t>布拉達曼特</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>紅閻魔</t>
+          <t>布拉達曼特</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" t="n">
         <v>5</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>李書文</t>
+          <t>紅閻魔</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>李書文</t>
+          <t>紅閻魔</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>李書文</t>
+          <t>紅閻魔</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B81" t="n">
         <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>紫式部</t>
+          <t>李書文</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>紫式部</t>
+          <t>李書文</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>紫式部</t>
+          <t>李書文</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B82" t="n">
         <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>キングプロテア</t>
+          <t>紫式部</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kingprotea</t>
+          <t>紫式部</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Kingprotea</t>
+          <t>紫式部</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B83" t="n">
         <v>5</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>カーマ</t>
+          <t>キングプロテア</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>迦摩</t>
+          <t>Kingprotea</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>迦摩</t>
+          <t>Kingprotea</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B84" t="n">
         <v>5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Beastiiil</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ビーストⅢ／L</t>
+          <t>カーマ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BeastⅢ／L</t>
+          <t>迦摩</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BeastⅢ／L</t>
+          <t>迦摩</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B85" t="n">
         <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Beastiiil</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>司馬懿〔ライネス〕</t>
+          <t>ビーストⅢ／L</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>萊妮絲</t>
+          <t>BeastⅢ／L</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>司馬懿〔萊涅絲〕</t>
+          <t>BeastⅢ／L</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B86" t="n">
         <v>5</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mooncancer</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ジナコ＝カリギリ</t>
+          <t>司馬懿〔ライネス〕</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>吉娜可·加里吉利</t>
+          <t>萊妮絲</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>吉娜可=加里吉利</t>
+          <t>司馬懿〔萊涅絲〕</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B87" t="n">
         <v>5</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Mooncancer</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>アルジュナ〔オルタ〕</t>
+          <t>ジナコ＝カリギリ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>阿周那〔Alter〕</t>
+          <t>吉娜可·加里吉利</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>阿周那〔Alter〕</t>
+          <t>吉娜可=加里吉利</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B88" t="n">
         <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>魔王信長</t>
+          <t>アルジュナ〔オルタ〕</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>魔王信長</t>
+          <t>阿周那〔Alter〕</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>魔王信長</t>
+          <t>阿周那〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B89" t="n">
         <v>5</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>レオナルド・ダ・ヴィンチ</t>
+          <t>魔王信長</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>萊昂納多·達·芬奇</t>
+          <t>魔王信長</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>李奧納多．達．文西</t>
+          <t>魔王信長</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>宮本武蔵</t>
+          <t>レオナルド・ダ・ヴィンチ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>宮本武藏</t>
+          <t>萊昂納多·達·芬奇</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>宮本武藏</t>
+          <t>李奧納多．達．文西</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B91" t="n">
         <v>5</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>アルトリア・ペンドラゴン</t>
+          <t>宮本武蔵</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>阿爾託莉雅·潘德拉貢</t>
+          <t>宮本武藏</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>阿爾托莉亞．潘德拉剛</t>
+          <t>宮本武藏</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>スペース・イシュタル</t>
+          <t>アルトリア・ペンドラゴン</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>太空伊什塔爾</t>
+          <t>阿爾託莉雅·潘德拉貢</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>太空伊絲塔</t>
+          <t>阿爾托莉亞．潘德拉剛</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>アストルフォ</t>
+          <t>スペース・イシュタル</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>阿斯托爾福</t>
+          <t>太空伊什塔爾</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>阿斯托爾福</t>
+          <t>太空伊絲塔</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>超人オリオン</t>
+          <t>アストルフォ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>超人俄裏翁</t>
+          <t>阿斯托爾福</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>超人俄里翁</t>
+          <t>阿斯托爾福</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B95" t="n">
         <v>5</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>エウロペ</t>
+          <t>超人オリオン</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>歐羅巴</t>
+          <t>超人俄裏翁</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>歐羅巴</t>
+          <t>超人俄里翁</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>楊貴妃</t>
+          <t>エウロペ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>琰女</t>
+          <t>歐羅巴</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>楊貴妃</t>
+          <t>歐羅巴</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B97" t="n">
         <v>5</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>清少納言</t>
+          <t>楊貴妃</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>清少納言</t>
+          <t>琰女</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>清少納言</t>
+          <t>楊貴妃</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B98" t="n">
         <v>5</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>オデュッセウス</t>
+          <t>清少納言</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>奧德修斯</t>
+          <t>清少納言</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>奧德修斯</t>
+          <t>清少納言</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B99" t="n">
         <v>5</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ディオスクロイ</t>
+          <t>オデュッセウス</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>狄俄斯庫裏</t>
+          <t>奧德修斯</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>狄奧斯庫洛伊</t>
+          <t>奧德修斯</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B100" t="n">
         <v>5</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ロムルス＝クィリヌス</t>
+          <t>ディオスクロイ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>羅穆路斯·奎裏努斯</t>
+          <t>狄俄斯庫裏</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>羅慕路斯=奎里努斯</t>
+          <t>狄奧斯庫洛伊</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B101" t="n">
         <v>5</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ボイジャー</t>
+          <t>ロムルス＝クィリヌス</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>旅行者</t>
+          <t>羅穆路斯·奎裏努斯</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>航海家</t>
+          <t>羅慕路斯=奎里努斯</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>アルトリア・キャスター</t>
+          <t>ボイジャー</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>阿爾託莉雅·卡斯特</t>
+          <t>旅行者</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>阿爾托莉亞．Caster</t>
+          <t>航海家</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" t="n">
         <v>5</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mooncancer</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>殺生院キアラ</t>
+          <t>アルトリア・キャスター</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>瞑生院祈荒</t>
+          <t>阿爾託莉雅·卡斯特</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>殺生院祈荒</t>
+          <t>阿爾托莉亞．Caster</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B104" t="n">
         <v>5</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Mooncancer</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>アビゲイル・ウィリアムズ〔夏〕</t>
+          <t>殺生院キアラ</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>阿比蓋爾·威廉姆斯〔夏〕</t>
+          <t>瞑生院祈荒</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>艾比蓋兒．威廉斯〔夏〕</t>
+          <t>殺生院祈荒</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B105" t="n">
         <v>5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>卑弥呼</t>
+          <t>アビゲイル・ウィリアムズ〔夏〕</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>卑彌呼</t>
+          <t>阿比蓋爾·威廉姆斯〔夏〕</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>卑彌呼</t>
+          <t>艾比蓋兒．威廉斯〔夏〕</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B106" t="n">
         <v>5</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ヴァン・ゴッホ</t>
+          <t>卑弥呼</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>梵高</t>
+          <t>卑彌呼</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>梵谷</t>
+          <t>卑彌呼</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B107" t="n">
         <v>5</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ネモ</t>
+          <t>ヴァン・ゴッホ</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>尼莫</t>
+          <t>梵高</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>尼莫</t>
+          <t>梵谷</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>蘆屋道満</t>
+          <t>ネモ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>蘆屋道滿</t>
+          <t>尼莫</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>蘆屋道滿</t>
+          <t>尼莫</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B109" t="n">
         <v>5</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>伊吹童子</t>
+          <t>蘆屋道満</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>伊吹童子</t>
+          <t>蘆屋道滿</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>伊吹童子</t>
+          <t>蘆屋道滿</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B110" t="n">
         <v>5</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ヴリトラ</t>
+          <t>伊吹童子</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>弗慄多</t>
+          <t>伊吹童子</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>弗栗多</t>
+          <t>伊吹童子</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B111" t="n">
         <v>5</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>千子村正</t>
+          <t>ヴリトラ</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>千子村正</t>
+          <t>弗慄多</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>千子村正</t>
+          <t>弗栗多</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B112" t="n">
         <v>5</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>平景清</t>
+          <t>千子村正</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>平景清</t>
+          <t>千子村正</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>平景清</t>
+          <t>千子村正</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B113" t="n">
         <v>5</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>アムール〔カレン〕</t>
+          <t>平景清</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>阿摩耳〔卡蓮〕</t>
+          <t>平景清</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>埃莫〔卡蓮〕</t>
+          <t>平景清</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ガラテア</t>
+          <t>アムール〔カレン〕</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>伽拉忒亞</t>
+          <t>阿摩耳〔卡蓮〕</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>伽拉忒亞</t>
+          <t>埃莫〔卡蓮〕</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B115" t="n">
         <v>5</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ミス・クレーン</t>
+          <t>ガラテア</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>克萊恩小姐</t>
+          <t>伽拉忒亞</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ms.克蘭</t>
+          <t>伽拉忒亞</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B116" t="n">
         <v>5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>モルガン</t>
+          <t>ミス・クレーン</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>克萊恩小姐</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>Ms.克蘭</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B117" t="n">
         <v>5</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>メリュジーヌ</t>
+          <t>モルガン</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>梅柳齊娜</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>美露莘</t>
+          <t>摩根</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B118" t="n">
         <v>5</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>光のコヤンスカヤ</t>
+          <t>メリュジーヌ</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>光之高揚斯卡婭</t>
+          <t>梅柳齊娜</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>光之高揚斯卡婭</t>
+          <t>美露莘</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B119" t="n">
         <v>5</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pretender</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>オベロン</t>
+          <t>光のコヤンスカヤ</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>奧伯龍</t>
+          <t>光之高揚斯卡婭</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>奧伯隆</t>
+          <t>光之高揚斯卡婭</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Pretender</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>沖田総司〔オルタ〕</t>
+          <t>オベロン</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>沖田總司〔Alter〕</t>
+          <t>奧伯龍</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>沖田總司〔Alter〕</t>
+          <t>奧伯隆</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B121" t="n">
         <v>5</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>カーマ</t>
+          <t>沖田総司〔オルタ〕</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>迦摩</t>
+          <t>沖田總司〔Alter〕</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>迦摩</t>
+          <t>沖田總司〔Alter〕</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B122" t="n">
         <v>5</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ジャック・ド・モレー</t>
+          <t>カーマ</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>雅克·德·莫萊</t>
+          <t>迦摩</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>雅克．德．莫萊</t>
+          <t>迦摩</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B123" t="n">
         <v>5</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>出雲阿国</t>
+          <t>ジャック・ド・モレー</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>出雲阿國</t>
+          <t>雅克·德·莫萊</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>出雲阿國</t>
+          <t>雅克．德．莫萊</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B124" t="n">
         <v>5</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>坂本龍馬</t>
+          <t>出雲阿国</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>坂本龍馬</t>
+          <t>出雲阿國</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>坂本龍馬</t>
+          <t>出雲阿國</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B125" t="n">
         <v>5</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>太公望</t>
+          <t>坂本龍馬</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>太公望</t>
+          <t>坂本龍馬</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>太公望</t>
+          <t>坂本龍馬</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B126" t="n">
         <v>5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Beastiv</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ビーストⅣ</t>
+          <t>太公望</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Beast Ⅳ</t>
+          <t>太公望</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Beast Ⅳ</t>
+          <t>太公望</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B127" t="n">
         <v>5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Beastiv</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>闇のコヤンスカヤ</t>
+          <t>ビーストⅣ</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>暗之高揚斯卡婭</t>
+          <t>Beast Ⅳ</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>暗之高揚斯卡婭</t>
+          <t>Beast Ⅳ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B128" t="n">
         <v>5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>マナナン・マク・リール〔バゼット〕</t>
+          <t>闇のコヤンスカヤ</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>馬納南·麥克·利爾〔巴澤特〕</t>
+          <t>暗之高揚斯卡婭</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>馬納南．麥克．利爾〔芭潔特〕</t>
+          <t>暗之高揚斯卡婭</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B129" t="n">
         <v>5</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>徴姉妹</t>
+          <t>マナナン・マク・リール〔バゼット〕</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>徵氏姐妹</t>
+          <t>馬納南·麥克·利爾〔巴澤特〕</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>徵氏姐妹</t>
+          <t>馬納南．麥克．利爾〔芭潔特〕</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B130" t="n">
         <v>5</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>スーパーバニヤン</t>
+          <t>徴姉妹</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>超級班揚</t>
+          <t>徵氏姐妹</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>超級班揚</t>
+          <t>徵氏姐妹</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B131" t="n">
         <v>5</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>コンスタンティノス11世</t>
+          <t>スーパーバニヤン</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>君士坦丁十一世</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
+          <t>超級班揚</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>超級班揚</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" t="n">
         <v>5</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>シャルルマーニュ</t>
+          <t>コンスタンティノス11世</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>查理曼</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
+          <t>君士坦丁十一世</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>君士坦丁十一世</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B133" t="n">
         <v>5</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ジェームズ・モリアーティ</t>
+          <t>シャルルマーニュ</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>詹姆斯·莫里亞蒂</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>查理曼</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>查理曼</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B134" t="n">
         <v>5</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>曲亭馬琴</t>
+          <t>ジェームズ・モリアーティ</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>曲亭馬琴</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+          <t>詹姆斯·莫里亞蒂</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>詹姆斯．莫里亞蒂</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" t="n">
         <v>5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>源為朝</t>
+          <t>曲亭馬琴</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>源爲朝</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>曲亭馬琴</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>曲亭馬琴</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B136" t="n">
         <v>5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mooncancer</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>アーキタイプ：アース</t>
+          <t>源為朝</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Archetype：Earth</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+          <t>源爲朝</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>源為朝</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B137" t="n">
         <v>5</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pretender</t>
+          <t>Mooncancer</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>レディ・アヴァロン</t>
+          <t>アーキタイプ：アース</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>阿瓦隆女士</t>
+          <t>Archetype：Earth</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B138" t="n">
         <v>5</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Pretender</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>伊吹童子</t>
+          <t>レディ・アヴァロン</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>伊吹童子</t>
+          <t>阿瓦隆女士</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B139" t="n">
         <v>5</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>スカサハ＝スカディ</t>
+          <t>伊吹童子</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>斯卡哈·斯卡蒂</t>
+          <t>伊吹童子</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B140" t="n">
         <v>5</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>千利休</t>
+          <t>スカサハ＝スカディ</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>千利休</t>
+          <t>斯卡哈·斯卡蒂</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B141" t="n">
         <v>5</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>呼延灼</t>
+          <t>千利休</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>吾綽</t>
+          <t>千利休</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B142" t="n">
         <v>5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ブリトマート</t>
+          <t>呼延灼</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>布里託瑪特</t>
+          <t>吾綽</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B143" t="n">
         <v>5</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>言峰綺礼</t>
+          <t>ブリトマート</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>言峯綺禮</t>
+          <t>布里託瑪特</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B144" t="n">
         <v>5</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ニトクリス〔オルタ〕</t>
+          <t>言峰綺礼</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>尼託克麗絲〔Alter〕</t>
+          <t>言峯綺禮</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B145" t="n">
         <v>5</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>テスカトリポカ</t>
+          <t>ニトクリス〔オルタ〕</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>特斯卡特利波卡</t>
+          <t>尼託克麗絲〔Alter〕</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B146" t="n">
         <v>5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ククルカン</t>
+          <t>テスカトリポカ</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>庫庫爾坎</t>
+          <t>特斯卡特利波卡</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B147" t="n">
         <v>5</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>女教皇ヨハンナ</t>
+          <t>ククルカン</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>女教皇若安</t>
+          <t>庫庫爾坎</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B148" t="n">
         <v>5</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>高杉晋作</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>女教皇ヨハンナ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>女教皇若安</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B149" t="n">
         <v>5</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Alterego</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ラーヴァ／ティアマト</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>高杉晋作</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>高杉晉作</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B150" t="n">
         <v>5</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>Alterego</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ソドムズビースト／ドラコー</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>ラーヴァ／ティアマト</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>幼體／提亞馬特</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B151" t="n">
         <v>5</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>果心居士</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+          <t>ソドムズビースト／ドラコー</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>所多瑪之獸／德拉科</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B152" t="n">
         <v>5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Lancer</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ビーマ</t>
+          <t>果心居士</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -4587,19 +4619,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B153" t="n">
         <v>5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Lancer</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ドゥルガー</t>
+          <t>ビーマ</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -4607,19 +4639,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B154" t="n">
         <v>5</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>メドゥーサ</t>
+          <t>ドゥルガー</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -4627,19 +4659,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B155" t="n">
         <v>5</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>雨の魔女トネリコ</t>
+          <t>メドゥーサ</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
@@ -4647,19 +4679,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B156" t="n">
         <v>5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Berserker</t>
+          <t>Caster</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>アルトリア・キャスター</t>
+          <t>雨の魔女トネリコ</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -4667,19 +4699,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B157" t="n">
         <v>5</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Berserker</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>メリュジーヌ</t>
+          <t>アルトリア・キャスター</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -4687,19 +4719,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B158" t="n">
         <v>5</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Foreigner</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ワンジナ</t>
+          <t>メリュジーヌ</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -4707,19 +4739,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B159" t="n">
         <v>5</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Archer</t>
+          <t>Foreigner</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>プトレマイオス</t>
+          <t>ワンジナ</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -4727,19 +4759,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B160" t="n">
         <v>5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Archer</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>武田晴信</t>
+          <t>プトレマイオス</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4747,19 +4779,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B161" t="n">
         <v>5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ruler</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>上杉謙信</t>
+          <t>武田晴信</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4767,19 +4799,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B162" t="n">
         <v>5</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Saber</t>
+          <t>Ruler</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ヤマトタケル</t>
+          <t>上杉謙信</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -4787,19 +4819,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B163" t="n">
         <v>5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Avenger</t>
+          <t>Saber</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>源頼光／丑御前</t>
+          <t>ヤマトタケル</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -4807,23 +4839,123 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B164" t="n">
         <v>5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Avenger</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>アンドロメダ</t>
+          <t>源頼光／丑御前</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>406</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>アンドロメダ</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>407</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>マリー・アントワネット〔オルタ〕</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>409</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>巌窟王　モンテ・クリスト</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>413</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>415</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>久遠寺有珠</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,7 +4259,11 @@
           <t>Archetype：Earth</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Archetype：Earth</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4283,7 +4287,11 @@
           <t>阿瓦隆女士</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Lady阿瓦隆</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4307,7 +4315,11 @@
           <t>伊吹童子</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>伊吹童子</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4331,7 +4343,11 @@
           <t>斯卡哈·斯卡蒂</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>斯卡薩哈=斯卡蒂</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4355,7 +4371,11 @@
           <t>千利休</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>千利休</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4379,7 +4399,11 @@
           <t>吾綽</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>呼延灼</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4614,7 +4638,11 @@
           <t>果心居士</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -4634,7 +4662,11 @@
           <t>ビーマ</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>怖軍</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -4654,7 +4686,11 @@
           <t>ドゥルガー</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>杜爾伽</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -4674,7 +4710,11 @@
           <t>メドゥーサ</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>美杜莎</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -4694,7 +4734,11 @@
           <t>雨の魔女トネリコ</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>雨之魔女梣</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -4956,6 +5000,26 @@
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>416</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ひびき＆千鍵</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4427,7 +4427,11 @@
           <t>布里託瑪特</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>布里托瑪特</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4758,7 +4762,11 @@
           <t>アルトリア・キャスター</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>阿爾託莉雅·卡斯特</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -4778,7 +4786,11 @@
           <t>メリュジーヌ</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>梅柳齊娜</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -4798,7 +4810,11 @@
           <t>ワンジナ</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>旺吉娜</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -5020,6 +5036,66 @@
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>417</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Beasteresh</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>エレシュキガル</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>418</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>謎の代行者C.I.E.L</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>421</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ＢＢドバイ</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4455,7 +4455,11 @@
           <t>言峯綺禮</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>言峰綺禮</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4479,7 +4483,11 @@
           <t>尼託克麗絲〔Alter〕</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>尼托克里絲〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4503,7 +4511,11 @@
           <t>特斯卡特利波卡</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>特斯卡特利波卡</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4527,7 +4539,11 @@
           <t>庫庫爾坎</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>庫庫爾坎</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4551,7 +4567,11 @@
           <t>女教皇若安</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>女教皇瓊安</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4834,7 +4854,11 @@
           <t>プトレマイオス</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>托勒密</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -4854,7 +4878,11 @@
           <t>武田晴信</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -4874,7 +4902,11 @@
           <t>上杉謙信</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -5096,6 +5128,66 @@
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>426</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>カズラドロップ</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>427</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>ツタンカーメン</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>429</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>ロウヒ</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/5_servents.xlsx
+++ b/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,11 @@
           <t>蒼崎青子</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4595,7 +4599,11 @@
           <t>高杉晉作</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>高杉晉作</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4926,7 +4934,11 @@
           <t>ヤマトタケル</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>大和武尊</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -5188,6 +5200,46 @@
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>431</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>ファンタズムーン</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>432</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>リチャードⅠ世</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
